--- a/Data_processed/industry/fuels.xlsx
+++ b/Data_processed/industry/fuels.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/fuels.xlsx
+++ b/Data_processed/industry/fuels.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/fuels.xlsx
+++ b/Data_processed/industry/fuels.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>729.790112142683</v>
+        <v>2858.327333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>2858.327333333334</v>
+        <v>46758.303</v>
       </c>
       <c r="F2" t="n">
-        <v>46758.303</v>
+        <v>0.079697751</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>713.7196943805</v>
+        <v>2799.252866666667</v>
       </c>
       <c r="E3" t="n">
-        <v>2799.252866666667</v>
+        <v>46790.267</v>
       </c>
       <c r="F3" t="n">
-        <v>46790.267</v>
+        <v>0.078050598</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>170.6593244287</v>
+        <v>748.278</v>
       </c>
       <c r="E4" t="n">
-        <v>748.278</v>
+        <v>47063.868</v>
       </c>
       <c r="F4" t="n">
-        <v>47063.868</v>
+        <v>0.020863977</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>62.470766766</v>
+        <v>294.6922866666667</v>
       </c>
       <c r="E5" t="n">
-        <v>294.6922866666667</v>
+        <v>38740.507</v>
       </c>
       <c r="F5" t="n">
-        <v>38740.507</v>
+        <v>0.008216802800000001</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>708.28876028114</v>
+        <v>2880.933333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>2880.933333333333</v>
+        <v>44226.866</v>
       </c>
       <c r="F6" t="n">
-        <v>44226.866</v>
+        <v>0.080328065</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>682.0162166073069</v>
+        <v>2790.875466666667</v>
       </c>
       <c r="E7" t="n">
-        <v>2790.875466666667</v>
+        <v>43989.878</v>
       </c>
       <c r="F7" t="n">
-        <v>43989.878</v>
+        <v>0.077817014</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>284.11018135556</v>
+        <v>1436.143666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>1436.143666666667</v>
+        <v>41236.976</v>
       </c>
       <c r="F8" t="n">
-        <v>41236.976</v>
+        <v>0.040043496</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9776970371210001</v>
+        <v>3.971818133333334</v>
       </c>
       <c r="E9" t="n">
-        <v>3.971818133333334</v>
+        <v>58.84974</v>
       </c>
       <c r="F9" t="n">
-        <v>58.84974</v>
+        <v>0.00011074483</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9776970371210001</v>
+        <v>3.971818133333334</v>
       </c>
       <c r="E10" t="n">
-        <v>3.971818133333334</v>
+        <v>58.84974</v>
       </c>
       <c r="F10" t="n">
-        <v>58.84974</v>
+        <v>0.00011074483</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>449.331957656768</v>
+        <v>1714.285733333333</v>
       </c>
       <c r="E11" t="n">
-        <v>1714.285733333333</v>
+        <v>26916.372</v>
       </c>
       <c r="F11" t="n">
-        <v>26916.372</v>
+        <v>0.047798834</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.98388236533</v>
+        <v>11.76893066666667</v>
       </c>
       <c r="E12" t="n">
-        <v>11.76893066666667</v>
+        <v>174.91564</v>
       </c>
       <c r="F12" t="n">
-        <v>174.91564</v>
+        <v>0.00032814902</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.0348605033073894</v>
+        <v>0.1367532266666667</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1367532266666667</v>
+        <v>2.1555017</v>
       </c>
       <c r="F13" t="n">
-        <v>2.1555017</v>
+        <v>3.8130428e-06</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.0375885067244844</v>
+        <v>0.1479167533333333</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1479167533333333</v>
+        <v>2.331461</v>
       </c>
       <c r="F14" t="n">
-        <v>2.331461</v>
+        <v>4.1243116e-06</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.0403165100323795</v>
+        <v>0.15908028</v>
       </c>
       <c r="E15" t="n">
-        <v>0.15908028</v>
+        <v>2.5074203</v>
       </c>
       <c r="F15" t="n">
-        <v>2.5074203</v>
+        <v>4.4355804e-06</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.0471365193669671</v>
+        <v>0.1869891066666667</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1869891066666667</v>
+        <v>2.9473186</v>
       </c>
       <c r="F16" t="n">
-        <v>2.9473186</v>
+        <v>5.2137524e-06</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.0614585373903911</v>
+        <v>0.2455976266666667</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2455976266666667</v>
+        <v>3.871105</v>
       </c>
       <c r="F17" t="n">
-        <v>3.871105</v>
+        <v>6.8479136e-06</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.033657508211937</v>
+        <v>0.1233076533333333</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1233076533333333</v>
+        <v>2.0577513</v>
       </c>
       <c r="F18" t="n">
-        <v>2.0577513</v>
+        <v>3.4381445e-06</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.03579966697719</v>
+        <v>0.1317149933333333</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1317149933333333</v>
+        <v>2.1980525</v>
       </c>
       <c r="F19" t="n">
-        <v>2.1980525</v>
+        <v>3.6725634e-06</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.037941824750542</v>
+        <v>0.1401223333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1401223333333333</v>
+        <v>2.3383537</v>
       </c>
       <c r="F20" t="n">
-        <v>2.3383537</v>
+        <v>3.9069824e-06</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.05293693154701</v>
+        <v>0.1989737066666667</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1989737066666667</v>
+        <v>3.3204623</v>
       </c>
       <c r="F21" t="n">
-        <v>3.3204623</v>
+        <v>5.547915e-06</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.010853984413</v>
+        <v>0.04554260866666666</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04554260866666666</v>
+        <v>1.196605</v>
       </c>
       <c r="F22" t="n">
-        <v>1.196605</v>
+        <v>1.2698488e-06</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.012171968121</v>
+        <v>0.051072782</v>
       </c>
       <c r="E23" t="n">
-        <v>0.051072782</v>
+        <v>1.3419071</v>
       </c>
       <c r="F23" t="n">
-        <v>1.3419071</v>
+        <v>1.4240447e-06</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.013141073954</v>
+        <v>0.05513908666666667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05513908666666667</v>
+        <v>1.4487468</v>
       </c>
       <c r="F24" t="n">
-        <v>1.4487468</v>
+        <v>1.537424e-06</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.013024781205</v>
+        <v>0.05465113</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05465113</v>
+        <v>1.4359261</v>
       </c>
       <c r="F25" t="n">
-        <v>1.4359261</v>
+        <v>1.5238185e-06</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.0172113183</v>
+        <v>0.07221756666666668</v>
       </c>
       <c r="E26" t="n">
-        <v>0.07221756666666668</v>
+        <v>1.8974737</v>
       </c>
       <c r="F26" t="n">
-        <v>1.8974737</v>
+        <v>2.0136173e-06</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,7 +1307,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.00223918862</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1293,7 +1338,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.00144245897</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1324,13 +1369,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.8787102270181901</v>
+        <v>1.304549666666667</v>
       </c>
       <c r="E29" t="n">
-        <v>1.304549666666667</v>
+        <v>51.774007</v>
       </c>
       <c r="F29" t="n">
-        <v>51.774007</v>
+        <v>3.6374306e-05</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1355,13 +1400,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.5463741747145</v>
+        <v>0.8929654666666667</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8929654666666667</v>
+        <v>50.491708</v>
       </c>
       <c r="F30" t="n">
-        <v>50.491708</v>
+        <v>2.4898247e-05</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1386,13 +1431,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9539156812412</v>
+        <v>3.679221</v>
       </c>
       <c r="E31" t="n">
-        <v>3.679221</v>
+        <v>53.780909</v>
       </c>
       <c r="F31" t="n">
-        <v>53.780909</v>
+        <v>0.00010258644</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.1918210800094</v>
+        <v>0.8410644666666667</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8410644666666667</v>
+        <v>52.899788</v>
       </c>
       <c r="F32" t="n">
-        <v>52.899788</v>
+        <v>2.345111e-05</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,13 +1493,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.25190040500232</v>
+        <v>1.4478264</v>
       </c>
       <c r="E33" t="n">
-        <v>1.4478264</v>
+        <v>51.161439</v>
       </c>
       <c r="F33" t="n">
-        <v>51.161439</v>
+        <v>4.0369243e-05</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1479,13 +1524,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.29016993216157</v>
+        <v>1.352902466666667</v>
       </c>
       <c r="E34" t="n">
-        <v>1.352902466666667</v>
+        <v>52.370959</v>
       </c>
       <c r="F34" t="n">
-        <v>52.370959</v>
+        <v>3.7722511e-05</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1510,13 +1555,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.1918210800094</v>
+        <v>0.8410644666666667</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8410644666666667</v>
+        <v>52.899788</v>
       </c>
       <c r="F35" t="n">
-        <v>52.899788</v>
+        <v>2.345111e-05</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1541,13 +1586,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.217809394441</v>
+        <v>1.040556</v>
       </c>
       <c r="E36" t="n">
-        <v>1.040556</v>
+        <v>58.14514</v>
       </c>
       <c r="F36" t="n">
-        <v>58.14514</v>
+        <v>2.9013462e-05</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1572,13 +1617,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.101906083586</v>
+        <v>0.5245417333333334</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5245417333333334</v>
+        <v>51.893882</v>
       </c>
       <c r="F37" t="n">
-        <v>51.893882</v>
+        <v>1.4625615e-05</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1603,13 +1648,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.080087522004</v>
+        <v>0.3777955066666667</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3777955066666667</v>
+        <v>49.66533</v>
       </c>
       <c r="F38" t="n">
-        <v>49.66533</v>
+        <v>1.0533941e-05</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1634,13 +1679,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.0137684308305</v>
+        <v>0.07512338666666667</v>
       </c>
       <c r="E39" t="n">
-        <v>0.07512338666666667</v>
+        <v>41.46553</v>
       </c>
       <c r="F39" t="n">
-        <v>41.46553</v>
+        <v>2.0946394e-06</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1665,13 +1710,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.6240274936564</v>
+        <v>3.569020666666667</v>
       </c>
       <c r="E40" t="n">
-        <v>3.569020666666667</v>
+        <v>41.52611</v>
       </c>
       <c r="F40" t="n">
-        <v>41.52611</v>
+        <v>9.9513766e-05</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1696,13 +1741,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.0300438181246</v>
+        <v>0.1698388933333333</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1698388933333333</v>
+        <v>35.169491</v>
       </c>
       <c r="F41" t="n">
-        <v>35.169491</v>
+        <v>4.735559e-06</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1727,13 +1772,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.5679358089187</v>
+        <v>2.749582066666667</v>
       </c>
       <c r="E42" t="n">
-        <v>2.749582066666667</v>
+        <v>35.320942</v>
       </c>
       <c r="F42" t="n">
-        <v>35.320942</v>
+        <v>7.6665644e-05</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1758,13 +1803,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.0471</v>
+        <v>0.3140000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3140000000000001</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>8.7551532e-06</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1789,13 +1834,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.01141361349159</v>
+        <v>0.045172414</v>
       </c>
       <c r="E44" t="n">
-        <v>0.045172414</v>
+        <v>10.071461</v>
       </c>
       <c r="F44" t="n">
-        <v>10.071461</v>
+        <v>1.2595268e-06</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1820,13 +1865,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.008086439346048999</v>
+        <v>0.02260702533333334</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02260702533333334</v>
+        <v>0.27844853</v>
       </c>
       <c r="F45" t="n">
-        <v>0.27844853</v>
+        <v>6.3034386e-07</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1851,13 +1896,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.119190638576346</v>
+        <v>0.35</v>
       </c>
       <c r="E46" t="n">
-        <v>0.35</v>
+        <v>52.756089</v>
       </c>
       <c r="F46" t="n">
-        <v>52.756089</v>
+        <v>9.7589287e-06</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1882,13 +1927,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.429190641576346</v>
+        <v>0.35</v>
       </c>
       <c r="E47" t="n">
-        <v>0.35</v>
+        <v>52.756089</v>
       </c>
       <c r="F47" t="n">
-        <v>52.756089</v>
+        <v>9.7589287e-06</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1913,13 +1958,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.880690641576346</v>
+        <v>3.36</v>
       </c>
       <c r="E48" t="n">
-        <v>3.36</v>
+        <v>52.756089</v>
       </c>
       <c r="F48" t="n">
-        <v>52.756089</v>
+        <v>9.3685715e-05</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1944,13 +1989,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.554924765836</v>
+        <v>1.1607132</v>
       </c>
       <c r="E49" t="n">
-        <v>1.1607132</v>
+        <v>57.94436</v>
       </c>
       <c r="F49" t="n">
-        <v>57.94436</v>
+        <v>3.2363764e-05</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1975,13 +2020,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.9776970371210001</v>
+        <v>3.971818133333334</v>
       </c>
       <c r="E50" t="n">
-        <v>3.971818133333334</v>
+        <v>58.84974</v>
       </c>
       <c r="F50" t="n">
-        <v>58.84974</v>
+        <v>0.00011074483</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2006,13 +2051,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.244924769636</v>
+        <v>1.1607132</v>
       </c>
       <c r="E51" t="n">
-        <v>1.1607132</v>
+        <v>57.94436</v>
       </c>
       <c r="F51" t="n">
-        <v>57.94436</v>
+        <v>3.2363764e-05</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2037,13 +2082,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.6676970373210001</v>
+        <v>3.971818133333334</v>
       </c>
       <c r="E52" t="n">
-        <v>3.971818133333334</v>
+        <v>58.84974</v>
       </c>
       <c r="F52" t="n">
-        <v>58.84974</v>
+        <v>0.00011074483</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2068,13 +2113,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.2053557031026</v>
+        <v>1.021207333333333</v>
       </c>
       <c r="E53" t="n">
-        <v>1.021207333333333</v>
+        <v>34.033436</v>
       </c>
       <c r="F53" t="n">
-        <v>34.033436</v>
+        <v>2.847397e-05</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2099,13 +2144,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.494284562210098</v>
+        <v>3.016965866666667</v>
       </c>
       <c r="E54" t="n">
-        <v>3.016965866666667</v>
+        <v>27.226749</v>
       </c>
       <c r="F54" t="n">
-        <v>27.226749</v>
+        <v>8.4121014e-05</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2130,13 +2175,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.5259398220239999</v>
+        <v>3.1285706</v>
       </c>
       <c r="E55" t="n">
-        <v>3.1285706</v>
+        <v>46.355488</v>
       </c>
       <c r="F55" t="n">
-        <v>46.355488</v>
+        <v>8.7232849e-05</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2161,13 +2206,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.48391731822559</v>
+        <v>2.8738048</v>
       </c>
       <c r="E56" t="n">
-        <v>2.8738048</v>
+        <v>42.668768</v>
       </c>
       <c r="F56" t="n">
-        <v>42.668768</v>
+        <v>8.0129303e-05</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2192,13 +2237,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.042492807161746</v>
+        <v>0.19</v>
       </c>
       <c r="E57" t="n">
-        <v>0.19</v>
+        <v>52.745617</v>
       </c>
       <c r="F57" t="n">
-        <v>52.745617</v>
+        <v>5.2977041e-06</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2223,13 +2268,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.04375694497395</v>
+        <v>0.274</v>
       </c>
       <c r="E58" t="n">
-        <v>0.274</v>
+        <v>51.000662</v>
       </c>
       <c r="F58" t="n">
-        <v>51.000662</v>
+        <v>7.639846999999999e-06</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2254,13 +2299,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.45547405772</v>
+        <v>0.482</v>
       </c>
       <c r="E59" t="n">
-        <v>0.482</v>
+        <v>56.301312</v>
       </c>
       <c r="F59" t="n">
-        <v>56.301312</v>
+        <v>1.3439439e-05</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2285,13 +2330,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.92647405772</v>
+        <v>3.622</v>
       </c>
       <c r="E60" t="n">
-        <v>3.622</v>
+        <v>56.301312</v>
       </c>
       <c r="F60" t="n">
-        <v>56.301312</v>
+        <v>0.00010099097</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2316,13 +2361,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.021800677287238</v>
+        <v>0.08509560000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.08509560000000001</v>
+        <v>1.3240718</v>
       </c>
       <c r="F61" t="n">
-        <v>1.3240718</v>
+        <v>2.3726911e-06</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2347,13 +2392,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.578387468537</v>
+        <v>3.595603466666667</v>
       </c>
       <c r="E62" t="n">
-        <v>3.595603466666667</v>
+        <v>47.209177</v>
       </c>
       <c r="F62" t="n">
-        <v>47.209177</v>
+        <v>0.00010025496</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2378,13 +2423,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.888387468237</v>
+        <v>3.595603466666667</v>
       </c>
       <c r="E63" t="n">
-        <v>3.595603466666667</v>
+        <v>47.209177</v>
       </c>
       <c r="F63" t="n">
-        <v>47.209177</v>
+        <v>0.00010025496</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2409,13 +2454,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.4160519171179999</v>
+        <v>0.398</v>
       </c>
       <c r="E64" t="n">
-        <v>0.398</v>
+        <v>55.613552</v>
       </c>
       <c r="F64" t="n">
-        <v>55.613552</v>
+        <v>1.1097296e-05</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2440,13 +2485,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.8870519171179999</v>
+        <v>3.538</v>
       </c>
       <c r="E65" t="n">
-        <v>3.538</v>
+        <v>55.613552</v>
       </c>
       <c r="F65" t="n">
-        <v>55.613552</v>
+        <v>9.864882800000001e-05</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2471,13 +2516,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.978030558166</v>
+        <v>3.955000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>3.955000000000001</v>
+        <v>59.224905</v>
       </c>
       <c r="F66" t="n">
-        <v>59.224905</v>
+        <v>0.00011027589</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2502,13 +2547,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.507030558166</v>
+        <v>0.8150000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8150000000000001</v>
+        <v>59.224905</v>
       </c>
       <c r="F67" t="n">
-        <v>59.224905</v>
+        <v>2.2724363e-05</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2533,13 +2578,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.176574423678</v>
+        <v>0.705</v>
       </c>
       <c r="E68" t="n">
-        <v>0.705</v>
+        <v>58.164787</v>
       </c>
       <c r="F68" t="n">
-        <v>58.164787</v>
+        <v>1.9657271e-05</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2564,13 +2609,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>30415.16979401675</v>
+        <v>2839.49</v>
       </c>
       <c r="E69" t="n">
-        <v>2839.49</v>
+        <v>3661126.4</v>
       </c>
       <c r="F69" t="n">
-        <v>3661126.4</v>
+        <v>0.079172515</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2580,5 +2625,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>